--- a/WorkoutProgram.xlsx
+++ b/WorkoutProgram.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Week 1</t>
   </si>
@@ -58,58 +58,43 @@
     <t>Reps</t>
   </si>
   <si>
-    <t>Flat Bench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Standing Dumbell Shoulder Press</t>
-  </si>
-  <si>
-    <t>Dumbell Lat Raise</t>
+    <t xml:space="preserve"> Smith Machine Shoulder Press</t>
   </si>
   <si>
     <t>DAY 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pullups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Narrow Grip Barbell Curl</t>
+    <t>Cable EZ Bar Curl</t>
+  </si>
+  <si>
+    <t>Shrug Machine</t>
   </si>
   <si>
     <t>DAY 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> Slant Board Situp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Low Bar Good Mornings</t>
+    <t xml:space="preserve"> Deficit Smith Machine Calves</t>
+  </si>
+  <si>
+    <t>Machine Hip Thrust</t>
+  </si>
+  <si>
+    <t>Leg Extensions</t>
+  </si>
+  <si>
+    <t>Shoulder Press Machine</t>
   </si>
   <si>
     <t>DAY 4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Flat Hammer Press</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dumbell Rear Delt Fly</t>
-  </si>
-  <si>
     <t>DAY 5</t>
   </si>
   <si>
-    <t xml:space="preserve"> Underhand EZ Bar Row</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Incline Dumbell Curl</t>
-  </si>
-  <si>
-    <t>DAY 6</t>
-  </si>
-  <si>
-    <t>Hanging Knee Raises</t>
-  </si>
-  <si>
-    <t>Stiff Legged Deadlifts</t>
+    <t>Calf Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cable Pull through</t>
   </si>
 </sst>
 </file>
@@ -441,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M38"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,80 +495,80 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -597,14 +582,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
         <v>8</v>
       </c>
     </row>
@@ -626,7 +627,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -637,7 +638,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -646,36 +647,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -686,50 +687,12 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
         <v>8</v>
       </c>
     </row>
